--- a/yield_prediction/results/graph_descriptors/WLsigmoidarctangent_2/out_of_sample/additive/ranking_test2/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidarctangent_2/out_of_sample/additive/ranking_test2/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.147</v>
+        <v>0.521</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>37.56</v>
+        <v>18.014</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.957</v>
+        <v>0.547</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>48.309</v>
+        <v>18.911</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-3.465</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>57.147</v>
+        <v>14.817</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>24.79073201898498</v>
+        <v>-9.789147301948972</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>32.98645683934434</v>
+        <v>11.51813205561294</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>35.3282636623617</v>
+        <v>16.85130864231818</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>24.838939783463</v>
+        <v>-10.93092662599672</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>33.81333915370443</v>
+        <v>4.981768642084266</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>36.35057524902042</v>
+        <v>10.60831603812321</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>30.81581649052472</v>
+        <v>-0.6225538884468129</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>38.22508175187402</v>
+        <v>12.18857646951959</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>40.33683048415646</v>
+        <v>16.61474948815384</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>35.5928235607787</v>
+        <v>13.56400914528489</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>44.51855159818365</v>
+        <v>20.29107469279657</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>47.31527476973163</v>
+        <v>23.9128065087596</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>31.56343775586912</v>
+        <v>-6.529827336984745</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>45.55117975531889</v>
+        <v>11.84281424815111</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>49.39133024789739</v>
+        <v>18.04284730384354</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>24.98741885523198</v>
+        <v>-9.761942634753105</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>33.07192095940485</v>
+        <v>13.73715046686832</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>35.38425243922937</v>
+        <v>21.52326363783234</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>24.9421400913206</v>
+        <v>-14.48134239639749</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>33.79483102866867</v>
+        <v>3.913566975200549</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>36.30010684189863</v>
+        <v>12.00058063509114</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>30.82573897618416</v>
+        <v>-2.394927329793358</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>38.1346751804668</v>
+        <v>12.34735980401498</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>25.57530481034827</v>
+        <v>-2.180812711859517</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>33.78807432471741</v>
+        <v>21.57053101270519</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>36.13074157775748</v>
+        <v>26.66309989761945</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>25.6799412760974</v>
+        <v>-0.6776528364427001</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>34.67292234487721</v>
+        <v>17.65650047936732</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>37.21099365795327</v>
+        <v>22.98294831025901</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>31.6881396645023</v>
+        <v>10.6398689482314</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>39.11286195301495</v>
+        <v>25.55722951376698</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>41.22527779332786</v>
+        <v>29.72981675544955</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>36.46257419996042</v>
+        <v>28.65747027701003</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>45.40542403906262</v>
+        <v>36.1295512154627</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>48.20300706011403</v>
+        <v>39.53850649488783</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>32.40560928205231</v>
+        <v>6.473447769854063</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>46.4219351110809</v>
+        <v>27.66229293728977</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>50.26351322280034</v>
+        <v>33.4860640758745</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>25.7613119865654</v>
+        <v>0.5845091859583356</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>33.86265157188448</v>
+        <v>26.76447700862648</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>36.17585312215065</v>
+        <v>34.43015920419268</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>25.77166048698055</v>
+        <v>-1.083422640385447</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>34.64270773546097</v>
+        <v>19.97907792348318</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>37.14883091551047</v>
+        <v>27.89601525690368</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>39.01036331712337</v>
+        <v>29.23026739169948</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>25.79626296412649</v>
+        <v>-2.279893856661396</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>34.00598918730745</v>
+        <v>21.89048327294132</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>36.34662294671469</v>
+        <v>27.10723231880769</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>25.91386227960771</v>
+        <v>0.09836374949430748</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>34.90348944586337</v>
+        <v>18.91447797497816</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>37.43934503146106</v>
+        <v>24.36139015994203</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>31.92452760232523</v>
+        <v>11.3968833818023</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>39.34650766157829</v>
+        <v>26.74263228864847</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>41.45706508144684</v>
+        <v>31.025126862109</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>36.69458585369937</v>
+        <v>30.12878131022311</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>45.63382486922549</v>
+        <v>37.72215344153872</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>48.42887770981199</v>
+        <v>41.22837064328897</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>32.6344869281066</v>
+        <v>7.552703830009326</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>46.64548978683764</v>
+        <v>29.30529914945277</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>50.48378238250285</v>
+        <v>35.26254289044609</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>25.97965073373656</v>
+        <v>0.9333872869554583</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>34.0779932871413</v>
+        <v>27.57109236633472</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>36.38919232637766</v>
+        <v>35.3882194035908</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>26.00284802083027</v>
+        <v>0.2361700831703928</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>34.87059243691402</v>
+        <v>21.82090721134594</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>37.37453370085166</v>
+        <v>29.88787863947834</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>31.91978893422968</v>
+        <v>13.4855621690991</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>39.24129517055134</v>
+        <v>31.00370745092019</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>25.1827505111284</v>
+        <v>-5.414127738258593</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>33.39851917139661</v>
+        <v>17.43501743326923</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>35.7411703503991</v>
+        <v>23.23207383244382</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>25.2590499944011</v>
+        <v>-3.938531101983326</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>34.2553262234737</v>
+        <v>13.56206834640913</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>36.79340473430699</v>
+        <v>19.65010233092186</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>31.26399270847377</v>
+        <v>6.465093285270527</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>38.69136077986438</v>
+        <v>20.65646843208653</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>40.80378259064894</v>
+        <v>25.48836701533168</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>36.04712836128965</v>
+        <v>22.57406669988514</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>44.9940710394125</v>
+        <v>29.77172046770065</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>47.79124192953712</v>
+        <v>33.76345414873695</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>31.99719490923049</v>
+        <v>1.088687801400027</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>46.01886296655235</v>
+        <v>21.3068573899798</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>49.86041750753138</v>
+        <v>28.02990522947136</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>25.37446355812062</v>
+        <v>-3.804416473259547</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>33.47875627691272</v>
+        <v>21.40131112619173</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>35.79193167519806</v>
+        <v>29.75948805090733</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>25.35679312697873</v>
+        <v>-5.763838185460568</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>34.23108530593719</v>
+        <v>14.39782574059594</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>36.73720417848605</v>
+        <v>23.06025972972844</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>31.26809657171182</v>
+        <v>6.493272248488267</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>38.59490809564957</v>
+        <v>22.76664368640382</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>40.21976553109945</v>
+        <v>18.84338061551356</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>35.52747119409751</v>
+        <v>15.32724474306678</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>44.33121295925746</v>
+        <v>24.37491782706253</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>47.09621159425225</v>
+        <v>29.74622431818043</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>31.56522380002085</v>
+        <v>-5.557523029202944</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>45.36221002597406</v>
+        <v>16.17376797997147</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>49.1548976377671</v>
+        <v>24.92922063735269</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>31.40867081547343</v>
+        <v>-6.723254208615451</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>39.51061926546269</v>
+        <v>18.92617166953177</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>41.84938722361127</v>
+        <v>27.51031991194954</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>31.75894157090897</v>
+        <v>-11.10187570295283</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>40.6307176891071</v>
+        <v>9.79461221804398</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>43.16472688940461</v>
+        <v>18.71771125021618</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>37.8836018480351</v>
+        <v>3.796842821424683</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>45.21115531576834</v>
+        <v>20.74816698537746</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>47.32000438948572</v>
+        <v>27.94689262214636</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>42.67290309475298</v>
+        <v>27.28109604195062</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>51.50853605058771</v>
+        <v>37.35698602098232</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>54.31410840105616</v>
+        <v>43.21269918551342</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>38.75465710840679</v>
+        <v>3.946335516800513</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>52.56511142636156</v>
+        <v>28.56663740437438</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>56.40020536508097</v>
+        <v>38.21361294446856</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>41.09612981098457</v>
+        <v>35.5858794982125</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>36.3853033250149</v>
+        <v>33.89682801801948</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>45.20596188155756</v>
+        <v>43.72942883983447</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>47.97184920448338</v>
+        <v>48.91897184249419</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>32.39583552410495</v>
+        <v>10.85267605841163</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>46.2210549519839</v>
+        <v>35.68889658549054</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>50.01519171345541</v>
+        <v>44.19872665619889</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>32.19078267695033</v>
+        <v>6.68176989122794</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>40.30948119833216</v>
+        <v>35.10847669021585</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>42.64914063213617</v>
+        <v>43.44216556895361</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>32.59709321763922</v>
+        <v>5.649223751020276</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>41.48712308367244</v>
+        <v>29.30199240363182</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>44.02200273302398</v>
+        <v>37.92316150275194</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>38.75292454228531</v>
+        <v>21.80863545339683</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>46.0956617762286</v>
+        <v>41.15878886780006</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>48.20521452237915</v>
+        <v>48.10107755455726</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>43.53983328018745</v>
+        <v>49.37520999887811</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>52.39228355706027</v>
+        <v>60.225023451626</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>55.19869917798284</v>
+        <v>65.84847318828224</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>39.59456543823849</v>
+        <v>23.79207715162471</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>53.43309799046376</v>
+        <v>51.61739498954714</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>57.26964683421184</v>
+        <v>60.87408972052735</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>41.3252312642143</v>
+        <v>37.49484039277642</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>36.61461457317502</v>
+        <v>35.87456224979869</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>45.43171916126438</v>
+        <v>45.81853103279518</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>48.19511502858273</v>
+        <v>51.11941543641169</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>32.62203766402654</v>
+        <v>12.46941555000622</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>46.44201486648335</v>
+        <v>37.91300950271406</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>50.23291692233884</v>
+        <v>46.58853202725767</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>32.40610154625646</v>
+        <v>8.172348457007526</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>40.52177657641703</v>
+        <v>37.06907153807173</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>42.85942191504749</v>
+        <v>45.51632034781235</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>32.82508047270382</v>
+        <v>8.199454137004924</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>41.71177620323149</v>
+        <v>32.38276300162102</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>44.24446100967585</v>
+        <v>41.11523041405074</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>38.98322289720702</v>
+        <v>24.35931215677354</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>46.32323131708789</v>
+        <v>44.18195956504599</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>48.43094533080462</v>
+        <v>51.22629485567381</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>43.76578647077784</v>
+        <v>52.57215030604617</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>52.61463685809643</v>
+        <v>63.52241093852983</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>55.41852261544759</v>
+        <v>69.244277287709</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>39.81743167128175</v>
+        <v>26.60320788032009</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>53.65068736881422</v>
+        <v>55.04424788505646</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>57.48397525175734</v>
+        <v>64.42515629700975</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>40.68067169543553</v>
+        <v>29.76579028390596</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>35.9758166017691</v>
+        <v>26.07172860561351</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>44.80051023812722</v>
+        <v>35.62690232025072</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>47.56596697534034</v>
+        <v>41.43601960274925</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>31.99324743539251</v>
+        <v>3.849522128717542</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>45.82372908597328</v>
+        <v>27.6340861681301</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>49.61782393159593</v>
+        <v>37.03457107941935</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>31.80442974581627</v>
+        <v>2.257115222388443</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>39.92612666632512</v>
+        <v>29.67098614232871</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>42.26581710202215</v>
+        <v>38.77435793368605</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>32.18300906067426</v>
+        <v>0.8251733032522459</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>41.07633425898161</v>
+        <v>23.54384655240317</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>43.6112723610035</v>
+        <v>32.99057298775698</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>38.33565883878244</v>
+        <v>15.99887810592775</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>45.68104779073587</v>
+        <v>34.53253001153896</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>47.79064598356459</v>
+        <v>42.18959101596449</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>43.13122403621221</v>
+        <v>41.40927248546244</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>51.9877638100608</v>
+        <v>51.9885431923862</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>54.793895409164</v>
+        <v>58.27524729855735</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>39.19301480204312</v>
+        <v>16.6114803900156</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>53.03686371973868</v>
+        <v>43.34641439197037</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>56.87347845266029</v>
+        <v>53.58466563660483</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>-55.53882532170631</v>
+        <v>1.405465544034978</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>-47.03361162527253</v>
+        <v>24.13994441845715</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>-44.70521999987669</v>
+        <v>28.9732984363887</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>-58.45108173633967</v>
+        <v>1.531942376925365</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>-49.13593517134393</v>
+        <v>19.29631021179114</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>-46.61719222096929</v>
+        <v>24.40485018426822</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>-54.06467679588489</v>
+        <v>12.91656221020402</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>-46.37232800794703</v>
+        <v>27.40761521868308</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>-44.27555558567386</v>
+        <v>31.40504699301522</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>-47.21569922113564</v>
+        <v>28.50052213747095</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>-37.95915682206082</v>
+        <v>35.90378273097601</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>-35.1746263867239</v>
+        <v>38.91942730618065</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>-48.96850982640922</v>
+        <v>7.227316594486789</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>-34.45789243417995</v>
+        <v>27.68250098258849</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>-30.64911236036525</v>
+        <v>33.33373588680632</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>-54.55859455059804</v>
+        <v>-0.907879158801304</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>-46.16835471893805</v>
+        <v>23.83458044963479</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>-43.86974904309119</v>
+        <v>30.74550254557455</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>-57.53788662206388</v>
+        <v>-4.362741869087511</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>-48.34855840102004</v>
+        <v>15.67452927685674</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>-45.86208866997282</v>
+        <v>22.85167767195765</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>-53.22966917766009</v>
+        <v>8.685793130947928</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>-45.64105967880496</v>
+        <v>24.94415966231621</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>-54.82480079427238</v>
+        <v>8.229613863740994</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>-46.30208861314802</v>
+        <v>33.33779167133512</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>-43.97293033190452</v>
+        <v>37.90168345224085</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>-57.68286695769056</v>
+        <v>10.79312546890434</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>-48.34864008552745</v>
+        <v>30.90970370863775</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>-45.82916918789397</v>
+        <v>35.69370142012661</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>-53.26638018795974</v>
+        <v>23.17586292871939</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>-45.55815804564263</v>
+        <v>39.71636467886967</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>-43.46080834737687</v>
+        <v>43.43779528288975</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>-46.41784986955554</v>
+        <v>42.4091468286979</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>-37.14372514595047</v>
+        <v>50.5435426158267</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>-34.3584873681972</v>
+        <v>53.33613624429008</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>-48.1961898679201</v>
+        <v>19.12211478205727</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>-33.65623659946939</v>
+        <v>42.31570029718561</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>-29.84619111268344</v>
+        <v>47.56313975281052</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>-53.85461105896995</v>
+        <v>8.445395534957521</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>-45.44708534394414</v>
+        <v>35.78103340751348</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>-43.14770129559659</v>
+        <v>42.53051148701489</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>-56.78050076262475</v>
+        <v>7.82171242123178</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>-47.57232345923099</v>
+        <v>30.43857809509789</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>-45.08511126294367</v>
+        <v>37.40792757365919</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>-52.44261527693091</v>
+        <v>22.01420767673817</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>-44.8383239735258</v>
+        <v>40.51218451540353</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>-54.552199565317</v>
+        <v>7.86525284969094</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>-46.0326922633037</v>
+        <v>33.35421108347607</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>-43.70558480376631</v>
+        <v>38.02454700382438</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>-57.39532307501626</v>
+        <v>11.23868087722004</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>-48.06462814360115</v>
+        <v>31.7931247132571</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>-45.54738883260109</v>
+        <v>36.68049457566121</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>-52.9753049102252</v>
+        <v>23.58490572318794</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>-45.26997277690187</v>
+        <v>40.51606406284259</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>-43.17449545895875</v>
+        <v>44.33192701800035</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>-46.13240750487923</v>
+        <v>43.49353846846557</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>-36.86207692678532</v>
+        <v>51.73696604050625</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>-34.07940103763059</v>
+        <v>54.61620814837281</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>-47.91534311022102</v>
+        <v>19.84475650198612</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>-33.38098864999984</v>
+        <v>43.55316601644786</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>-29.57424909514862</v>
+        <v>48.91343600465787</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>-53.58513392130733</v>
+        <v>8.500764990805857</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>-45.18076481827021</v>
+        <v>36.2523632223152</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>-42.88339982091574</v>
+        <v>43.13500814732431</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>-56.4962141722449</v>
+        <v>8.780365167246831</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>-47.29151552298167</v>
+        <v>31.87167098209778</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>-44.80650025109395</v>
+        <v>38.973538116986</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>-52.15482982084804</v>
+        <v>22.94333965791638</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>-44.5533847862426</v>
+        <v>41.86415400694657</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>-55.29552794812572</v>
+        <v>5.135390579680848</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>-46.76966516447536</v>
+        <v>29.34457042031775</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>-44.44050814401605</v>
+        <v>34.586560255105</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>-58.18519322724252</v>
+        <v>7.732573539601205</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>-48.8475055122359</v>
+        <v>27.01134593737683</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>-46.32801243908646</v>
+        <v>32.52759281821881</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>-53.77353602908441</v>
+        <v>19.19195594952102</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>-46.06253348533356</v>
+        <v>35.00270674375264</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>-43.96516463690199</v>
+        <v>39.35777711793158</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>-46.91439225248256</v>
+        <v>36.63875705407297</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>-37.63602627354851</v>
+        <v>44.49415804692197</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>-34.85115468044123</v>
+        <v>47.83743763750215</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>-48.6834743080969</v>
+        <v>14.02289375055981</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>-34.13791339409123</v>
+        <v>36.24370673331318</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>-30.32787353928573</v>
+        <v>42.35446646907219</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>-54.31879345474785</v>
+        <v>4.208992304599505</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>-45.90816522760281</v>
+        <v>30.57647021111394</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>-43.60879405885015</v>
+        <v>37.99493887109217</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>-57.27592881694535</v>
+        <v>3.355091677873499</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>-48.06434317468252</v>
+        <v>25.06993239422399</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>-45.57712203264757</v>
+        <v>32.7594013763091</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>-52.94279399057218</v>
+        <v>16.54603957372769</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>-45.33576497155209</v>
+        <v>34.26161862623854</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>-43.57120298768113</v>
+        <v>30.67178241340461</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>-46.476422987861</v>
+        <v>27.5588164570858</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>-37.34589209915279</v>
+        <v>37.10648489639526</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>-34.59369124716112</v>
+        <v>41.63496123041912</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>-48.1832394184902</v>
+        <v>5.757044839895524</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>-33.86974166481535</v>
+        <v>29.3141446765661</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>-30.10885972678516</v>
+        <v>37.07152589447119</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>-46.09548101066918</v>
+        <v>1.170082226310338</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>-37.69590544201705</v>
+        <v>27.85440885852246</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>-35.37051150962483</v>
+        <v>35.60651157311706</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>-48.59356944463194</v>
+        <v>-2.085793381658391</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>-39.3941275288803</v>
+        <v>20.21877510214129</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>-36.8784044458574</v>
+        <v>28.28577751354202</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>-44.00321720500267</v>
+        <v>13.58761797515529</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>-36.40341597700612</v>
+        <v>31.8490915369747</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>-34.3094281759045</v>
+        <v>38.32910210425213</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>-37.21194133682876</v>
+        <v>37.7629698091642</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>-28.05808290633182</v>
+        <v>48.2966845336603</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>-25.26384537683705</v>
+        <v>53.2849796521742</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>-38.9313160334821</v>
+        <v>13.72643389222048</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>-24.61808615667557</v>
+        <v>39.91199472201816</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>-20.81399927332757</v>
+        <v>48.60042884373409</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>-42.76787902546157</v>
+        <v>46.06548921990405</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>-45.68985066303652</v>
+        <v>44.70191545797907</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>-36.54194756499545</v>
+        <v>55.01527725911927</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>-33.78900796197607</v>
+        <v>59.34839663797662</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>-47.42185464141789</v>
+        <v>20.82589038840652</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>-33.07938057486579</v>
+        <v>47.38816195221214</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>-29.31720797283566</v>
+        <v>54.85988391407462</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>-45.38156013729352</v>
+        <v>13.28148182255844</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>-47.82576044396818</v>
+        <v>13.13558568470474</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>-38.60758620160027</v>
+        <v>38.09916497614886</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>-36.09110341310823</v>
+        <v>45.8338931858318</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>-43.20543882055821</v>
+        <v>30.02543676513626</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>-35.59005405824216</v>
+        <v>50.60463632833483</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>-33.49545523475035</v>
+        <v>56.80107718644007</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>-36.41449720452204</v>
+        <v>58.08303711320083</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>-27.24338052012379</v>
+        <v>69.36921121118097</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>-24.44845409359898</v>
+        <v>74.11649422879427</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>-38.1589067250241</v>
+        <v>31.89791703027768</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>-23.81687712331569</v>
+        <v>61.17817810249194</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>-20.01150333603341</v>
+        <v>69.44416558618637</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>-42.48478349463902</v>
+        <v>47.53704414453004</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>-45.40763069347571</v>
+        <v>46.26591179602539</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>-36.26346259010153</v>
+        <v>56.67824833871714</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>-33.5130450374442</v>
+        <v>61.11185706125835</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>-47.14419166464192</v>
+        <v>22.06040778624244</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>-32.80723219987318</v>
+        <v>49.17701681426861</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>-29.04831344158639</v>
+        <v>56.79367072393076</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>-45.11645043236994</v>
+        <v>14.40679629465427</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>-36.70286750252851</v>
+        <v>44.19939747570061</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>-34.37871080053081</v>
+        <v>51.76352228739481</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>-47.54607560628153</v>
+        <v>15.25006629694065</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>-38.33140667568907</v>
+        <v>40.6972031949209</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>-35.81713479663283</v>
+        <v>48.52584635373425</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>-42.92241734175474</v>
+        <v>32.11949181574934</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>-35.30990344115584</v>
+        <v>53.1308454391804</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>-33.21715740457829</v>
+        <v>59.41353280728438</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>-36.13703341706609</v>
+        <v>60.79135664178288</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>-26.96969290883817</v>
+        <v>72.1664205364678</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>-24.17732842738729</v>
+        <v>77.0012420450705</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>-37.88593890059357</v>
+        <v>34.25517447271182</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>-23.5494515377988</v>
+        <v>64.09926829772918</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>-19.74735962299675</v>
+        <v>72.46882989342119</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>-43.26531115877351</v>
+        <v>40.43593675473281</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>-46.17956386127521</v>
+        <v>37.22508208178836</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>-37.0274798918488</v>
+        <v>47.25623015513858</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>-34.27492723854625</v>
+        <v>52.17415644762983</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>-47.90246662819287</v>
+        <v>14.14418514619605</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>-33.55446841910189</v>
+        <v>39.65675918618875</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>-29.79232239501975</v>
+        <v>47.98559835773824</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>-45.8434053741703</v>
+        <v>9.137989367760058</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>-37.42350020467232</v>
+        <v>37.50445107348828</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>-35.09726060780179</v>
+        <v>45.71127597844001</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>-48.31847784476895</v>
+        <v>8.661694085627511</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>-39.09684947017129</v>
+        <v>32.6986579268703</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>-36.58028701706651</v>
+        <v>41.22587999843505</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>-43.70285571532131</v>
+        <v>24.5750055543436</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>-36.08469015215037</v>
+        <v>44.34439139297764</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>-33.99002760316903</v>
+        <v>51.22609016093086</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>-36.90140867368657</v>
+        <v>50.62112036013816</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>-27.72605848387366</v>
+        <v>61.63651770203086</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>-24.93136360617513</v>
+        <v>67.00460868581978</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>-38.63660914732493</v>
+        <v>25.19194405167815</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>-24.2890091546868</v>
+        <v>53.39445032121264</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>-20.48354177109208</v>
+        <v>62.59961815412152</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>-3.308389230659898</v>
+        <v>2.876270887943615</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>4.904814719292986</v>
+        <v>26.02150508052108</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>7.107694218918695</v>
+        <v>30.81024500066122</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>-4.201031043896066</v>
+        <v>2.068154635945152</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>4.797404252162934</v>
+        <v>20.23670805390513</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>7.177611585135622</v>
+        <v>25.27141580797018</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>1.144140728874291</v>
+        <v>13.84816676987686</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>8.573761769312981</v>
+        <v>28.66320732039208</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>10.55502100122626</v>
+        <v>32.59000718840323</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>6.624886854719463</v>
+        <v>29.25190927042726</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>15.54859630689192</v>
+        <v>36.69605796595103</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>18.18689159968949</v>
+        <v>39.6736979639943</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>3.429116225163369</v>
+        <v>7.225209827120693</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>17.45057553897184</v>
+        <v>28.21224642523264</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>21.04717369998109</v>
+        <v>33.75165730262459</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>-3.003136819056749</v>
+        <v>0.1086162195938201</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>5.098626801506569</v>
+        <v>25.17542332580628</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>7.27268942484983</v>
+        <v>32.12179758267435</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>-3.986949626550583</v>
+        <v>-4.248953627815663</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>4.889526859476589</v>
+        <v>16.09247928058173</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>7.238502330879683</v>
+        <v>23.29877510681577</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>1.266999384550886</v>
+        <v>9.17200019922165</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>8.596069470087357</v>
+        <v>25.67085582659002</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>-2.566657075471042</v>
+        <v>9.748631696422249</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>5.663513230892235</v>
+        <v>35.31505698073959</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>7.867076575898267</v>
+        <v>39.81855240561432</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>-3.404585771672771</v>
+        <v>11.37455049720202</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>5.612350879623591</v>
+        <v>31.94390003053862</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>7.99319889229659</v>
+        <v>36.63895794019287</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>1.970903974586989</v>
+        <v>24.18191990436564</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>9.415918127224302</v>
+        <v>41.08966484525143</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>11.39768259070421</v>
+        <v>44.72585429334416</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>7.450185397964631</v>
+        <v>43.26610115068793</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>16.3909246042009</v>
+        <v>51.46288608860826</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>19.02981507223593</v>
+        <v>54.21224935314984</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>4.228292539968677</v>
+        <v>19.18703853361843</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>18.27818887219664</v>
+        <v>42.96967857872011</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>21.87591229887325</v>
+        <v>48.08825735782388</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>-2.271865416857565</v>
+        <v>9.532511243160958</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>5.846659084070211</v>
+        <v>37.24044978238781</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>8.021418131378695</v>
+        <v>44.011730520463</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>-3.201765185316745</v>
+        <v>8.007871037161889</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>5.692989232930699</v>
+        <v>30.97882525355008</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>8.042620870294769</v>
+        <v>37.96494285436425</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>2.082084099523755</v>
+        <v>22.60468805256934</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>9.42636219943067</v>
+        <v>41.38712282825041</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>-2.331459295783588</v>
+        <v>9.288511720262145</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>5.895633027605697</v>
+        <v>35.23903909882804</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>8.097233909670265</v>
+        <v>39.8499426847447</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>-3.156033624566959</v>
+        <v>11.73350015717644</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>5.857508567521364</v>
+        <v>32.74392571696494</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>8.236223679569918</v>
+        <v>37.54401058290762</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>2.222232301090727</v>
+        <v>24.49834919119179</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>9.664470309650412</v>
+        <v>41.80021345785009</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>11.64444509679377</v>
+        <v>45.53195334489173</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>7.696786809590193</v>
+        <v>44.26274700180931</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>16.63388608789916</v>
+        <v>52.57288181628923</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>19.27031641127901</v>
+        <v>55.41098743252554</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>4.471371283394532</v>
+        <v>19.82411161045328</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>18.5158808425568</v>
+        <v>44.12524561876756</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>22.11044668118608</v>
+        <v>49.35840031629881</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>-2.039313080886956</v>
+        <v>9.47059826551199</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>6.076180569893751</v>
+        <v>37.59807970592884</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>8.24900820934964</v>
+        <v>44.50406214477077</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>-2.955973570563103</v>
+        <v>8.856961677609718</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>5.935438428600207</v>
+        <v>32.306167414348</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>8.282971075718251</v>
+        <v>39.42707781292544</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>2.330629665098158</v>
+        <v>23.4184633084827</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>9.672174339178824</v>
+        <v>42.62761409992429</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>-2.978274164499098</v>
+        <v>6.488232256256103</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>5.254885623609226</v>
+        <v>31.12602828714944</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>7.458414266207512</v>
+        <v>36.32771625247764</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>-3.845252077989642</v>
+        <v>8.167711611081792</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>5.174970332564456</v>
+        <v>27.86777773556941</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>7.555803417454044</v>
+        <v>33.31624188564587</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>1.526573094221035</v>
+        <v>20.01187256952396</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>8.974222582662563</v>
+        <v>36.16248698270563</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>10.95597528851688</v>
+        <v>40.45121196991238</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>7.014988300541447</v>
+        <v>37.28782585116504</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>15.95974833058512</v>
+        <v>45.19622498785498</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>18.59826010952986</v>
+        <v>48.50726673517264</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>3.800595989558019</v>
+        <v>13.90839871504445</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>17.85583143551889</v>
+        <v>36.683088375255</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>21.45349191956637</v>
+        <v>42.68759991582805</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>-2.677668350763014</v>
+        <v>5.032982903372123</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>5.443799549427226</v>
+        <v>31.74263755121074</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>7.61851168254924</v>
+        <v>39.20329691972623</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>-3.636291044948322</v>
+        <v>3.287150059463137</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>5.261698798593031</v>
+        <v>25.3237155163539</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>7.611301574587301</v>
+        <v>33.0514477200557</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>1.643956288718329</v>
+        <v>16.84093801900858</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>8.990828831015079</v>
+        <v>34.81315354575263</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>10.55129795394135</v>
+        <v>31.40675656312397</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>6.670132229887159</v>
+        <v>27.80147804539234</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>15.47178139517592</v>
+        <v>37.3534573881965</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>18.07871643353594</v>
+        <v>41.88202884724807</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>3.539590912389954</v>
+        <v>5.309604339803798</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>17.37000415914198</v>
+        <v>29.29918103923873</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>20.92019124564526</v>
+        <v>37.04794458505727</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>4.356425579165304</v>
+        <v>2.326346940630732</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>12.46712163919489</v>
+        <v>29.35167383193059</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>14.66880706023209</v>
+        <v>37.17373146443416</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>3.812948781030329</v>
+        <v>-1.893747091002492</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>12.69888562299726</v>
+        <v>20.73875660876769</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>15.07822827478092</v>
+        <v>28.86456579148287</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>9.322293735148037</v>
+        <v>14.18403549765246</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>16.66200823933169</v>
+        <v>32.70916037029837</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>18.64223988482524</v>
+        <v>39.22482878996588</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>14.78365218200157</v>
+        <v>38.18963742534643</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>23.60822249129723</v>
+        <v>48.78348650767434</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>26.25840529134192</v>
+        <v>53.78447354321163</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>11.66527751245334</v>
+        <v>13.50642000184719</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>25.49436459854911</v>
+        <v>40.13963045525807</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>29.089811413514</v>
+        <v>48.85482126999892</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>11.3821077267257</v>
+        <v>46.93624405494173</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>7.483733514024678</v>
+        <v>45.08859252244585</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>16.30220994474224</v>
+        <v>55.4292294702188</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>18.90977174951874</v>
+        <v>59.75669503665961</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>4.327422403028706</v>
+        <v>20.48239101653592</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>18.18592519175633</v>
+        <v>47.53592859116534</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>21.7372641670054</v>
+        <v>54.98442134007938</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>5.096604397097721</v>
+        <v>14.5340972133165</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>13.22395749893619</v>
+        <v>44.28464902816671</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>15.42634944845508</v>
+        <v>51.80715971569293</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>4.607500297867048</v>
+        <v>13.42711496532104</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>13.51159365293265</v>
+        <v>38.76587256849802</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>15.89160322348299</v>
+        <v>46.54410120670169</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>10.1470122646402</v>
+        <v>30.75528003372776</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>17.50183276468641</v>
+        <v>51.6400901141426</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>19.4825985740499</v>
+        <v>57.85736983376515</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>15.60704709385377</v>
+        <v>58.68399826970573</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>24.44832664964201</v>
+        <v>70.04991588086936</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>27.09908308918778</v>
+        <v>74.80338449523396</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>12.46307290431792</v>
+        <v>31.81128869345182</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>26.32006622865438</v>
+        <v>61.59474025047484</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>29.9166522456933</v>
+        <v>69.86948523590169</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>11.62615827419546</v>
+        <v>48.29790744222316</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>7.727607984106299</v>
+        <v>46.54466552621483</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>16.54250222552149</v>
+        <v>56.988673804676</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>19.14764274458094</v>
+        <v>61.41948447768051</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>4.567798940502513</v>
+        <v>21.61167081583094</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>18.42099712468243</v>
+        <v>49.22377510201991</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>21.96922953816826</v>
+        <v>56.81969891152842</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>5.325448531576356</v>
+        <v>15.54721534349675</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>13.44974703820911</v>
+        <v>45.72943709903791</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>15.65019346693666</v>
+        <v>53.34789384763722</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>4.84937618076178</v>
+        <v>15.43933028807706</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>13.75009885565272</v>
+        <v>41.26471282222366</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>16.12799340833374</v>
+        <v>49.13774139399501</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>10.39149372628265</v>
+        <v>32.74150607136858</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>17.74355490489175</v>
+        <v>54.06172927163257</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>19.72254828107398</v>
+        <v>60.36564566004007</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>15.84685134524307</v>
+        <v>61.29287974538761</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>24.68450641024069</v>
+        <v>72.75103934122245</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>27.33280054179863</v>
+        <v>77.59451336735387</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>12.6994245157497</v>
+        <v>34.07195649676492</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>26.55108330525765</v>
+        <v>64.42273537528128</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>30.14453152687845</v>
+        <v>72.80196934703044</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>10.94655170736268</v>
+        <v>41.00224298840789</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>7.054609732812267</v>
+        <v>37.29049494875508</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>15.87704884991561</v>
+        <v>47.33776765961843</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>18.48421055155146</v>
+        <v>52.26403306144466</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>3.905665406783072</v>
+        <v>13.51195242729572</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>17.76942730197139</v>
+        <v>39.47955092052827</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>21.32068139042087</v>
+        <v>47.80870020855252</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>4.692104821007263</v>
+        <v>10.13660106045548</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>12.82244131168394</v>
+        <v>38.86123109343734</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>15.02485643346719</v>
+        <v>47.14226285610364</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>4.174603059972526</v>
+        <v>8.709616750348143</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>13.0819764838015</v>
+        <v>33.09134373306404</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>15.46203455389249</v>
+        <v>41.68351606953081</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>9.71054731001108</v>
+        <v>25.01995315127217</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>17.06800434255501</v>
+        <v>45.06860453228107</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>19.04880802123099</v>
+        <v>51.98995590152869</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>15.17964840829418</v>
+        <v>50.91326740030338</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>24.02494401129771</v>
+        <v>62.00007644563949</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>26.67546091410647</v>
+        <v>67.38795157457875</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>12.0431722145553</v>
+        <v>24.83111204732967</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>25.90546871348606</v>
+        <v>53.50300348135468</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>29.50209967875367</v>
+        <v>62.74056529023611</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>29.11572555071025</v>
+        <v>-4.602345863149413</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>37.24514103117166</v>
+        <v>18.05718896029953</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>39.43840935454038</v>
+        <v>22.77611421186509</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>29.47892198641829</v>
+        <v>-5.734941114313422</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>38.38430919831104</v>
+        <v>11.8505983572122</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>40.75500921261282</v>
+        <v>16.83133197717151</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>35.48714025250276</v>
+        <v>5.745520003329691</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>42.83986362641193</v>
+        <v>20.06055683102432</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>44.81350620905972</v>
+        <v>23.93446952843327</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>40.16738045206183</v>
+        <v>21.15846127115185</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>48.99837031797273</v>
+        <v>28.27691564282152</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>51.62835318679507</v>
+        <v>31.18172607616884</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>36.08815929408512</v>
+        <v>-0.05752487485059987</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>49.96668205586842</v>
+        <v>20.29572440975568</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>53.54607671275745</v>
+        <v>25.79378104900366</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>29.05105741249423</v>
+        <v>-7.499394701589733</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>37.06994224719826</v>
+        <v>17.20884448264309</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>39.23470664109141</v>
+        <v>24.13143016689909</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>29.31051601952544</v>
+        <v>-12.2613803651247</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>38.09495926617969</v>
+        <v>7.643719699757245</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>40.43476649108401</v>
+        <v>14.84432241339922</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>35.21989991959794</v>
+        <v>0.9040476874420413</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>42.47291041350097</v>
+        <v>17.02539530002106</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>29.88097489866598</v>
+        <v>1.893088839088787</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>38.02716402841765</v>
+        <v>26.96667506184781</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>40.221124023451</v>
+        <v>31.39578382736073</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>30.29963032993708</v>
+        <v>3.203528152986991</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>39.22330575488507</v>
+        <v>23.18114136616845</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>41.59465914745282</v>
+        <v>27.81842570239549</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>36.33855541052375</v>
+        <v>15.70606285360856</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>43.70649514208505</v>
+        <v>32.10593371389741</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>45.68065382929096</v>
+        <v>35.68612873507484</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>41.01665714767277</v>
+        <v>34.83519914901542</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>49.8644845113871</v>
+        <v>42.70404626746046</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>52.49507791526204</v>
+        <v>45.37608395977372</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>36.91073881329147</v>
+        <v>11.59254124798685</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>50.81737142515843</v>
+        <v>34.73194233756401</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>54.39790649107072</v>
+        <v>39.80540898682017</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>29.80559397796152</v>
+        <v>1.65495320505082</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>37.84104891544603</v>
+        <v>29.00301752810648</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>40.00651804295458</v>
+        <v>35.74828174017049</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>30.11970608735281</v>
+        <v>-0.2559710966780457</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>38.9222162823019</v>
+        <v>22.27597006043395</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>41.26269285106105</v>
+        <v>29.25526365993701</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>36.0593757172828</v>
+        <v>14.08217402561858</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>43.32741924359273</v>
+        <v>32.4845801201923</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>30.09431733952537</v>
+        <v>1.349745036109169</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>38.23745096328785</v>
+        <v>26.81126915147106</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>40.42946133616349</v>
+        <v>31.35064913905619</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>30.52543561068768</v>
+        <v>3.484866469823459</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>39.44574167063502</v>
+        <v>23.90786729202103</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>41.81497650284804</v>
+        <v>28.65348999212264</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>36.56666271756118</v>
+        <v>15.94398738615125</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>43.93184686628429</v>
+        <v>32.74181100912706</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>45.9042277057076</v>
+        <v>36.42036521484604</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>41.24055126524789</v>
+        <v>35.76260108359267</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>50.08476802031844</v>
+        <v>43.74769708211136</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>52.7129173265173</v>
+        <v>46.5104463142961</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>37.13172308821962</v>
+        <v>12.1580637012966</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>51.03300818134532</v>
+        <v>35.82106695739381</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>54.61040819003479</v>
+        <v>41.0129058420067</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>30.01654637611018</v>
+        <v>1.540428279715659</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>38.0489926140928</v>
+        <v>29.3122739682347</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>40.21254306333258</v>
+        <v>36.19591202734956</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>30.34301589158031</v>
+        <v>0.5498525198477928</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>39.14220839845763</v>
+        <v>23.5647121223618</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>41.48060018866633</v>
+        <v>30.6829826454562</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>36.28497110666726</v>
+        <v>14.8520417241789</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>43.55030146507296</v>
+        <v>33.68535633758053</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>29.5033774899279</v>
+        <v>-1.323276467809716</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>37.65250663207972</v>
+        <v>22.83168402901197</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>39.84645066053189</v>
+        <v>27.96706946959615</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>29.89439576296486</v>
+        <v>0.04202439795517421</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>38.82130224892289</v>
+        <v>19.16123140272557</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>41.19266180188277</v>
+        <v>24.5603459292433</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>35.93036579705394</v>
+        <v>11.57761725140942</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>43.30089547001535</v>
+        <v>27.23059520034348</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>45.27506015682522</v>
+        <v>31.47018392644876</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>40.61678265068875</v>
+        <v>28.88248133568184</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>49.46856535061548</v>
+        <v>36.46587776670361</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>52.09881482308572</v>
+        <v>39.70706540516495</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>36.51740770252423</v>
+        <v>6.322877134463909</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>50.42929930894518</v>
+        <v>28.46725403840001</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>54.00980040054996</v>
+        <v>34.43622486648676</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>29.43341204639874</v>
+        <v>-2.818999558747002</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>37.47176156213424</v>
+        <v>23.53849462555788</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>39.63720241232549</v>
+        <v>30.98169968886714</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>29.72019842459011</v>
+        <v>-4.949888086985201</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>38.52589006714759</v>
+        <v>16.65641293719818</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>40.86635875368055</v>
+        <v>24.38600286285016</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>35.65696671833667</v>
+        <v>8.341309808702242</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>42.92755988831721</v>
+        <v>25.94174356535994</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>44.42080279991635</v>
+        <v>22.75341614473149</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>39.83199684233285</v>
+        <v>19.49013590540612</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>48.54197858881664</v>
+        <v>28.7622675472319</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>51.14094215718789</v>
+        <v>33.19446664460522</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>35.82825756693652</v>
+        <v>-2.331721969392181</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>49.51727486326906</v>
+        <v>21.18180320406938</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>53.05077421503805</v>
+        <v>28.93862018158394</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>35.69346436467443</v>
+        <v>-3.558918044582718</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>43.72300468142348</v>
+        <v>23.19017153334238</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>45.91296567889397</v>
+        <v>30.94778182761007</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>36.35879023498386</v>
+        <v>-8.133523508590656</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>45.15461214356122</v>
+        <v>14.14384724118409</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>47.52204264223165</v>
+        <v>22.22503341682822</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>42.50755132174737</v>
+        <v>7.79062358159004</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>49.77275022074039</v>
+        <v>26.01003751926394</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>51.74332912195892</v>
+        <v>32.48469957552305</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>47.19135945627222</v>
+        <v>31.7593490325275</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>55.92582681176302</v>
+        <v>42.09834248414784</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>58.56486893384609</v>
+        <v>46.98954786581375</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>43.21508554156661</v>
+        <v>7.61955983938698</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>56.90604352009842</v>
+        <v>33.86703746594097</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>60.48094106937337</v>
+        <v>42.54738636704859</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>45.27583996392434</v>
+        <v>38.02498480584542</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>40.66932450507125</v>
+        <v>36.56089180088923</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>49.39594312620066</v>
+        <v>46.62202861557421</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>51.99554899562673</v>
+        <v>50.84925937390143</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>36.63924699932572</v>
+        <v>12.64419872153288</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>50.35603001820294</v>
+        <v>39.2187829128894</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>53.89069709512299</v>
+        <v>46.6749143581918</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>36.45627680171834</v>
+        <v>8.482837008753293</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>44.50228711562254</v>
+        <v>37.95857886640346</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>46.69295855228651</v>
+        <v>45.41248522074216</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>37.17668241070843</v>
+        <v>7.048394835177705</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>45.99045388885971</v>
+        <v>32.03214713365085</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>48.35855959570917</v>
+        <v>39.7626069132491</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>43.3559787810393</v>
+        <v>24.22218809371863</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>50.6361120935053</v>
+        <v>44.80131562371969</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>52.60723224738915</v>
+        <v>50.9749414682733</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>48.03780435832751</v>
+        <v>52.15093141435438</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>56.78879494243183</v>
+        <v>63.26289774009449</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>59.42842191207571</v>
+        <v>67.90221417955325</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>44.03537176333467</v>
+        <v>25.83807834578387</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>57.7539184480358</v>
+        <v>55.23599522439562</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>61.32996422655872</v>
+        <v>63.47337408964778</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>45.49697232035573</v>
+        <v>39.3504921569557</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>40.8907567558487</v>
+        <v>37.98299338443717</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>49.61382202419216</v>
+        <v>48.15103498579944</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>52.21102242334524</v>
+        <v>52.48410661020584</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>36.85778698329966</v>
+        <v>13.73701878823035</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>50.56930411916551</v>
+        <v>40.87577324033624</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>54.10088696991556</v>
+        <v>48.48418702486769</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>36.66397587321838</v>
+        <v>9.455757455678889</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>44.70695336952809</v>
+        <v>39.36809443783729</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>46.89569262050933</v>
+        <v>46.92114758092438</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>37.39655191722977</v>
+        <v>9.031602388385171</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>46.20697700659993</v>
+        <v>34.50742601623393</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>48.572982620066</v>
+        <v>42.33633938441026</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>43.57799486383976</v>
+        <v>26.17882993844524</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>50.85538880709979</v>
+        <v>47.19822835140543</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>52.82474883623532</v>
+        <v>53.46159634270959</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>48.2556409083514</v>
+        <v>54.7405054372788</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>57.00303587935777</v>
+        <v>65.94849531880631</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>59.64021750683291</v>
+        <v>70.67997987723514</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>44.2503504879402</v>
+        <v>28.07656900104924</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>57.9636003721758</v>
+        <v>58.0483034385848</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>61.53653167871064</v>
+        <v>66.39442014170145</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>44.87597562127118</v>
+        <v>32.12935791253157</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>40.27511008416879</v>
+        <v>28.76714575904245</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>49.00562674534154</v>
+        <v>38.5379161355516</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>51.60486725558975</v>
+        <v>43.3712009877835</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>36.25145351071836</v>
+        <v>5.663875243879023</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>49.97341659350937</v>
+        <v>31.16331531149573</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>53.50802758402946</v>
+        <v>39.5096466148761</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>36.08471823088316</v>
+        <v>4.079764893385359</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>44.13366470393427</v>
+        <v>32.53807073337185</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>46.32437610712055</v>
+        <v>40.75900390866967</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>36.77808892703328</v>
+        <v>2.32405972792936</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>45.59508824838512</v>
+        <v>26.36051224827739</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>47.96326136103374</v>
+        <v>34.91343247867583</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>42.95450582912434</v>
+        <v>18.47568711901865</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>50.23723231744947</v>
+        <v>38.22761260625158</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>52.20840625780141</v>
+        <v>45.11252289383589</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>47.64460381660717</v>
+        <v>44.35310996570117</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>56.39954757104105</v>
+        <v>55.18943529767574</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>59.03896619341529</v>
+        <v>60.4696439548037</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>43.64873953037718</v>
+        <v>18.81532136639031</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>57.37251301198599</v>
+        <v>47.11358723909292</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>60.94862967617372</v>
+        <v>56.32307038833197</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>54.83423645656123</v>
+        <v>3.820878716505575</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>63.25905753974843</v>
+        <v>27.34602177180696</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>65.63538805062772</v>
+        <v>33.03762710939232</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>56.17962722886997</v>
+        <v>3.74995319172222</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>65.40484243547751</v>
+        <v>21.88866724598051</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>67.97917604250462</v>
+        <v>27.93608239299951</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>63.02242972099614</v>
+        <v>15.66388272972775</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>70.63956461432274</v>
+        <v>30.38891454339923</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>72.78241575776016</v>
+        <v>35.16677871479577</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>67.20416939347061</v>
+        <v>31.82948718172801</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>76.38056360922053</v>
+        <v>39.51861361182316</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>79.21998349054029</v>
+        <v>43.21947467239981</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>62.16928682191228</v>
+        <v>9.748157413248181</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>76.54404262006251</v>
+        <v>30.64926102327646</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>80.44003951085587</v>
+        <v>37.31423847682749</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>54.71811518277018</v>
+        <v>2.99400583928702</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>63.0285017964645</v>
+        <v>28.82001398676467</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>65.3749465529621</v>
+        <v>36.93265233076911</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>55.9556233963277</v>
+        <v>-0.8465253728364104</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>65.05561970999004</v>
+        <v>19.89653388525154</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>67.59755451688937</v>
+        <v>28.35772875103482</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>62.69590378394595</v>
+        <v>12.8689219340435</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>70.2098019093349</v>
+        <v>29.62788667583732</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>55.6620308221643</v>
+        <v>12.16530952735541</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>64.10431260745771</v>
+        <v>38.22245654920864</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>66.48148669853084</v>
+        <v>43.65885493076287</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>57.06611558334917</v>
+        <v>14.82326540174202</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>66.31036666327012</v>
+        <v>35.47288066336635</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>68.88551373769751</v>
+        <v>41.20405612567185</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>63.94150896715529</v>
+        <v>27.80109877211001</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>71.57447976163787</v>
+        <v>44.71044729820528</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>73.71797980902312</v>
+        <v>49.22144029174532</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>68.12000346889916</v>
+        <v>47.89847999826284</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>77.31395253922831</v>
+        <v>56.35966602788478</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>80.15420202880233</v>
+        <v>59.8363674615353</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>63.05620028179952</v>
+        <v>23.65020673559834</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>77.46023135835588</v>
+        <v>47.47267617904724</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>81.35762478356142</v>
+        <v>53.74068751843647</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>55.53478166644962</v>
+        <v>14.1352257114775</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>63.86241642619574</v>
+        <v>42.73644975897008</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>66.20971521096513</v>
+        <v>50.71471276939263</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>56.83015879012036</v>
+        <v>13.43866238298241</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>65.9489597570404</v>
+        <v>36.94511069737246</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>68.49172110553877</v>
+        <v>45.22038461619766</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>63.60259232091062</v>
+        <v>28.38398525608766</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>71.1321348256825</v>
+        <v>47.53859341481471</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>55.86745367364784</v>
+        <v>12.04546009624857</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>64.3065920336381</v>
+        <v>38.52167370718747</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>66.68169495944986</v>
+        <v>44.0788891628485</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>57.28392251855634</v>
+        <v>15.59693538648519</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>66.52470976856642</v>
+        <v>36.7290743749181</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>69.09760003963534</v>
+        <v>42.57672444394873</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>64.1613468548115</v>
+        <v>28.54774827039189</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>71.79148484982137</v>
+        <v>45.8863224553567</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>73.93309186444839</v>
+        <v>50.50395025163259</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>68.33581845242699</v>
+        <v>49.36692504172076</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>77.52604216423566</v>
+        <v>57.94643805077291</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>80.36371180793083</v>
+        <v>61.51996093059211</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>63.26942013676376</v>
+        <v>24.72312549632347</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>77.66795644779654</v>
+        <v>49.11109830242445</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>81.56200357165685</v>
+        <v>55.5074526471365</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>55.73775066071416</v>
+        <v>14.48193060128429</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>64.06228977194094</v>
+        <v>43.54124929976557</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>66.40754895881621</v>
+        <v>51.66852209201043</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>57.04540459784082</v>
+        <v>14.77785931910138</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>66.16079446477465</v>
+        <v>38.80737886863817</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>68.70133345560414</v>
+        <v>47.22972591343216</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>63.81985153825993</v>
+        <v>29.70511993670706</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>71.3466045227966</v>
+        <v>49.3246347051143</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>55.29137912199225</v>
+        <v>8.538334182902442</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>63.73675943279811</v>
+        <v>33.65472760858858</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>66.11392867530395</v>
+        <v>39.80980969819449</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>56.66778609960582</v>
+        <v>11.16654114389291</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>65.91544140840698</v>
+        <v>30.94401251851338</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>68.49060898720896</v>
+        <v>37.45233452491748</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>63.5405808577992</v>
+        <v>23.18837382500649</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>71.17628611401156</v>
+        <v>39.33828084134864</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>73.31980303351688</v>
+        <v>44.52151546597894</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>67.72728833579447</v>
+        <v>41.33364415771301</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>76.9254503334442</v>
+        <v>49.50686904780797</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>79.76530085070618</v>
+        <v>53.57941300704787</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>62.66976628794486</v>
+        <v>17.80952473192777</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>77.07931374830329</v>
+        <v>40.61655005392956</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>80.97670358834334</v>
+        <v>47.80268900719457</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>55.16962530360719</v>
+        <v>9.311351998702811</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>63.50031104304589</v>
+        <v>36.89634852829098</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>65.84759417134094</v>
+        <v>45.58184284239827</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>56.43763575534226</v>
+        <v>8.314208095954996</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>65.55978904369519</v>
+        <v>30.87811818243702</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>68.10255857632963</v>
+        <v>39.91529261735251</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>63.20752689180316</v>
+        <v>22.21340682142163</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>70.73976166254025</v>
+        <v>40.55081947146791</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>72.32562929467261</v>
+        <v>36.43755467718572</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>66.80839454215563</v>
+        <v>32.70563330646014</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>75.85918019962121</v>
+        <v>42.78557915555825</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>78.66643438981021</v>
+        <v>48.23607368412746</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>61.85155098800028</v>
+        <v>9.839307710946088</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>76.03007725341546</v>
+        <v>34.25032361300218</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>79.87796638190962</v>
+        <v>43.41544910778228</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>60.34710327486891</v>
+        <v>4.20573844124937</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>68.6743208082934</v>
+        <v>32.13513800430209</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>71.04710184731108</v>
+        <v>41.06033532287264</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>61.94647192066454</v>
+        <v>0.700490213116332</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>71.06487381323403</v>
+        <v>23.89960634870658</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>73.63541801353283</v>
+        <v>33.21189480353524</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>68.90854135920308</v>
+        <v>17.16005553904348</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>76.44052618691084</v>
+        <v>36.08938252301709</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>78.57998448482464</v>
+        <v>43.61504601854573</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>73.12799074838476</v>
+        <v>42.83742892010497</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>82.21049805196913</v>
+        <v>53.93254275160521</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>85.05841057783893</v>
+        <v>59.87005476525438</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>68.24276766342101</v>
+        <v>17.55405294469556</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>82.43374961195356</v>
+        <v>44.81113402534119</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>86.32383057566804</v>
+        <v>54.87918626092443</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>73.24862089877303</v>
+        <v>54.19499935138194</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>67.71183117068234</v>
+        <v>52.32204378854547</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>76.77996111116852</v>
+        <v>63.21466486091708</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>79.58807497109079</v>
+        <v>68.47222736046797</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>62.72644005256551</v>
+        <v>27.21843297762371</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>76.93388197609238</v>
+        <v>54.84697453733706</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>80.78319066425476</v>
+        <v>63.74648472817258</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>61.17100200337136</v>
+        <v>18.35801220577357</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>69.51537747748169</v>
+        <v>49.16104989549616</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>71.8890336324212</v>
+        <v>57.81831265565937</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>62.82860090594897</v>
+        <v>18.29572535337747</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>71.96570172655022</v>
+        <v>44.34888664361218</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>74.53709529474762</v>
+        <v>53.33995572271008</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>69.82307081430694</v>
+        <v>36.06809239691557</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>77.37061072553941</v>
+        <v>57.48178586009668</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>79.51075516657615</v>
+        <v>64.73506259579207</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>74.03948170972622</v>
+        <v>65.92936877267171</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>83.13923032884114</v>
+        <v>77.82664350756211</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>85.98795589235965</v>
+        <v>83.51972170048113</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>69.12594269017819</v>
+        <v>38.32198449505539</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>83.34568095127844</v>
+        <v>68.89916093359555</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>87.23718621617569</v>
+        <v>78.55308845946796</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>73.4612261096507</v>
+        <v>56.11416181542177</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>67.92511907235441</v>
+        <v>54.31682951251344</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>76.98958234345804</v>
+        <v>65.31752693548475</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>79.79515578692428</v>
+        <v>70.68637676026771</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>62.93715167851451</v>
+        <v>28.85026815590708</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>77.13918219305612</v>
+        <v>57.08823547163061</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>80.98519634862123</v>
+        <v>66.1494877806991</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>61.37139348527671</v>
+        <v>19.8692853532881</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>69.71264695100251</v>
+        <v>51.14395677842081</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>72.08425222722656</v>
+        <v>59.9112932042617</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>63.04110614973929</v>
+        <v>20.8900224009959</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>72.17476465350693</v>
+        <v>47.47577798204191</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>74.74392329541789</v>
+        <v>56.57413959662109</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>70.03746607323664</v>
+        <v>38.65493510268853</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>77.58218800101061</v>
+        <v>60.54331037560256</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>79.72045998331745</v>
+        <v>67.89531583417067</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>74.24986983521029</v>
+        <v>69.16728232427472</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>83.34590532535452</v>
+        <v>81.1621271487362</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>86.19205212383466</v>
+        <v>86.95316476168664</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>69.33376138841808</v>
+        <v>41.171630476589</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>83.54805379795526</v>
+        <v>72.36800249882887</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>87.43623867096321</v>
+        <v>82.14106412870463</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>72.85625508659265</v>
+        <v>47.86421845909219</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>67.32485590747007</v>
+        <v>43.96075884255464</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>76.39713911884836</v>
+        <v>54.56216525521479</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>79.20483450907132</v>
+        <v>60.45302017705832</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>62.3456202401061</v>
+        <v>19.70996724411133</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>76.55849588220445</v>
+        <v>46.23853695665377</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>80.40778135326372</v>
+        <v>56.04806006801333</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>60.80561186269838</v>
+        <v>13.56596139285538</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>69.15308413286316</v>
+        <v>43.31358524206982</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>71.52678412603213</v>
+        <v>52.75708521924051</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>62.43610896131045</v>
+        <v>13.09375027186613</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>71.57661314527043</v>
+        <v>38.17040399735497</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>74.14808018838418</v>
+        <v>48.00527635403542</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>69.42802973427203</v>
+        <v>29.84070073488294</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>76.97830930986431</v>
+        <v>50.40093254965451</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>79.11851145183786</v>
+        <v>58.38412362969775</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>73.65263147747199</v>
+        <v>57.49897610348559</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>82.75658873211135</v>
+        <v>69.11208719280796</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>85.6050466268248</v>
+        <v>75.48226358882459</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>68.74543247417991</v>
+        <v>30.70471072259681</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>82.9706592611109</v>
+        <v>60.14244209786588</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>86.86225324547981</v>
+        <v>70.7993136783798</v>
       </c>
     </row>
   </sheetData>
